--- a/Data_file/ยืมโชว์12.xlsx
+++ b/Data_file/ยืมโชว์12.xlsx
@@ -256,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -283,6 +283,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -563,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U396"/>
+  <dimension ref="A1:U397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
+      <selection activeCell="H398" sqref="H398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -580,7 +581,7 @@
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" thickBot="1">
+    <row r="1" spans="1:11" ht="27" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,7 +613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.399999999999999" thickBot="1">
+    <row r="2" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -643,8 +644,12 @@
       <c r="J2" s="11">
         <v>11001</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K2">
+        <f>I2*H2</f>
+        <v>106.4778</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -675,8 +680,12 @@
       <c r="J3" s="11">
         <v>11002</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="0">I3*H3</f>
+        <v>106.6417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -707,8 +716,12 @@
       <c r="J4" s="11">
         <v>11003</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>106.6417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -739,8 +752,12 @@
       <c r="J5" s="11">
         <v>11004</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>319.92519999999899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -771,8 +788,12 @@
       <c r="J6" s="11">
         <v>11005</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>106.6417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -803,8 +824,12 @@
       <c r="J7" s="11">
         <v>11006</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>106.6417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -835,8 +860,12 @@
       <c r="J8" s="11">
         <v>11007</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>106.6417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -867,8 +896,12 @@
       <c r="J9" s="11">
         <v>11008</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>106.6417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -899,8 +932,12 @@
       <c r="J10" s="11">
         <v>11009</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>96.416600000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -931,8 +968,12 @@
       <c r="J11" s="11">
         <v>11010</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>101.4455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -963,8 +1004,12 @@
       <c r="J12" s="11">
         <v>11011</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>101.4455</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -995,8 +1040,12 @@
       <c r="J13" s="11">
         <v>11012</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>101.4455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -1027,8 +1076,12 @@
       <c r="J14" s="11">
         <v>11013</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>101.4455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1112,12 @@
       <c r="J15" s="11">
         <v>11014</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>101.4455</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
@@ -1091,8 +1148,12 @@
       <c r="J16" s="11">
         <v>11015</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>101.4455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
@@ -1123,8 +1184,12 @@
       <c r="J17" s="11">
         <v>11016</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>101.4036</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>10</v>
       </c>
@@ -1155,8 +1220,12 @@
       <c r="J18" s="11">
         <v>11017</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>101.4036</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
@@ -1187,8 +1256,12 @@
       <c r="J19" s="11">
         <v>11018</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>101.4036</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1219,8 +1292,12 @@
       <c r="J20" s="11">
         <v>11019</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>101.4036</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -1251,8 +1328,12 @@
       <c r="J21" s="11">
         <v>11020</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>101.4036</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -1283,8 +1364,12 @@
       <c r="J22" s="11">
         <v>11021</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>101.4036</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
@@ -1315,8 +1400,12 @@
       <c r="J23" s="11">
         <v>11022</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>105.455</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -1347,8 +1436,12 @@
       <c r="J24" s="11">
         <v>11023</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>105.455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
@@ -1379,8 +1472,12 @@
       <c r="J25" s="11">
         <v>11024</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>105.455</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
@@ -1411,8 +1508,12 @@
       <c r="J26" s="11">
         <v>11025</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>103.0551</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>10</v>
       </c>
@@ -1443,8 +1544,12 @@
       <c r="J27" s="11">
         <v>11026</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>309.1653</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1475,8 +1580,12 @@
       <c r="J28" s="11">
         <v>11027</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>103.0551</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>10</v>
       </c>
@@ -1507,8 +1616,12 @@
       <c r="J29" s="11">
         <v>11028</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>103.0551</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>10</v>
       </c>
@@ -1539,8 +1652,12 @@
       <c r="J30" s="11">
         <v>11029</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>99.774900000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>10</v>
       </c>
@@ -1571,8 +1688,12 @@
       <c r="J31" s="11">
         <v>11030</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>99.775000000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>10</v>
       </c>
@@ -1603,8 +1724,12 @@
       <c r="J32" s="11">
         <v>11031</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>105.4551</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>10</v>
       </c>
@@ -1635,8 +1760,12 @@
       <c r="J33" s="11">
         <v>11032</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>102.0672</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A34" s="5" t="s">
         <v>10</v>
       </c>
@@ -1667,8 +1796,12 @@
       <c r="J34" s="11">
         <v>11033</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>101.7278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A35" s="5" t="s">
         <v>10</v>
       </c>
@@ -1699,8 +1832,12 @@
       <c r="J35" s="11">
         <v>11034</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>101.7278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -1731,8 +1868,12 @@
       <c r="J36" s="11">
         <v>11035</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>19247.507099999963</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>10</v>
       </c>
@@ -1763,8 +1904,12 @@
       <c r="J37" s="11">
         <v>11036</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>138.05330000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>10</v>
       </c>
@@ -1795,8 +1940,12 @@
       <c r="J38" s="11">
         <v>11037</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>138.05330000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A39" s="5" t="s">
         <v>10</v>
       </c>
@@ -1827,8 +1976,12 @@
       <c r="J39" s="11">
         <v>11038</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>270.89460000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>10</v>
       </c>
@@ -1859,8 +2012,12 @@
       <c r="J40" s="11">
         <v>11039</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K40">
+        <f t="shared" si="0"/>
+        <v>135.44730000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A41" s="5" t="s">
         <v>10</v>
       </c>
@@ -1891,8 +2048,12 @@
       <c r="J41" s="11">
         <v>11040</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K41">
+        <f t="shared" si="0"/>
+        <v>135.44730000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A42" s="5" t="s">
         <v>10</v>
       </c>
@@ -1923,8 +2084,12 @@
       <c r="J42" s="11">
         <v>11041</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K42">
+        <f t="shared" si="0"/>
+        <v>135.44730000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A43" s="5" t="s">
         <v>10</v>
       </c>
@@ -1955,8 +2120,12 @@
       <c r="J43" s="11">
         <v>11042</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K43">
+        <f t="shared" si="0"/>
+        <v>135.44730000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -1987,8 +2156,12 @@
       <c r="J44" s="11">
         <v>11043</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>135.44730000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A45" s="5" t="s">
         <v>10</v>
       </c>
@@ -2019,8 +2192,12 @@
       <c r="J45" s="11">
         <v>11044</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K45">
+        <f t="shared" si="0"/>
+        <v>135.44730000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>10</v>
       </c>
@@ -2051,8 +2228,12 @@
       <c r="J46" s="11">
         <v>11045</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K46">
+        <f t="shared" si="0"/>
+        <v>135.44739999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>10</v>
       </c>
@@ -2083,8 +2264,12 @@
       <c r="J47" s="11">
         <v>11046</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K47">
+        <f t="shared" si="0"/>
+        <v>137.3563</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A48" s="5" t="s">
         <v>10</v>
       </c>
@@ -2115,8 +2300,12 @@
       <c r="J48" s="11">
         <v>11047</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K48">
+        <f t="shared" si="0"/>
+        <v>274.71260000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A49" s="5" t="s">
         <v>10</v>
       </c>
@@ -2147,8 +2336,12 @@
       <c r="J49" s="11">
         <v>11048</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K49">
+        <f t="shared" si="0"/>
+        <v>137.3563</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A50" s="5" t="s">
         <v>10</v>
       </c>
@@ -2179,8 +2372,12 @@
       <c r="J50" s="11">
         <v>11049</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K50">
+        <f t="shared" si="0"/>
+        <v>133.11959999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A51" s="5" t="s">
         <v>10</v>
       </c>
@@ -2211,8 +2408,12 @@
       <c r="J51" s="11">
         <v>11050</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K51">
+        <f t="shared" si="0"/>
+        <v>133.11959999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A52" s="5" t="s">
         <v>10</v>
       </c>
@@ -2243,8 +2444,12 @@
       <c r="J52" s="11">
         <v>11051</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K52">
+        <f t="shared" si="0"/>
+        <v>135.97499999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A53" s="5" t="s">
         <v>10</v>
       </c>
@@ -2275,8 +2480,12 @@
       <c r="J53" s="11">
         <v>11052</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K53">
+        <f t="shared" si="0"/>
+        <v>135.97499999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A54" s="5" t="s">
         <v>10</v>
       </c>
@@ -2307,8 +2516,12 @@
       <c r="J54" s="11">
         <v>11053</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K54">
+        <f t="shared" si="0"/>
+        <v>148.328</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A55" s="5" t="s">
         <v>10</v>
       </c>
@@ -2339,8 +2552,12 @@
       <c r="J55" s="11">
         <v>11054</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K55">
+        <f t="shared" si="0"/>
+        <v>296.65589999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A56" s="5" t="s">
         <v>10</v>
       </c>
@@ -2371,8 +2588,12 @@
       <c r="J56" s="11">
         <v>11055</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K56">
+        <f t="shared" si="0"/>
+        <v>148.328</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A57" s="5" t="s">
         <v>10</v>
       </c>
@@ -2403,8 +2624,12 @@
       <c r="J57" s="11">
         <v>11056</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K57">
+        <f t="shared" si="0"/>
+        <v>148.328</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A58" s="5" t="s">
         <v>10</v>
       </c>
@@ -2435,8 +2660,12 @@
       <c r="J58" s="11">
         <v>11057</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K58">
+        <f t="shared" si="0"/>
+        <v>296.65589999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A59" s="5" t="s">
         <v>10</v>
       </c>
@@ -2467,8 +2696,12 @@
       <c r="J59" s="11">
         <v>11058</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K59">
+        <f t="shared" si="0"/>
+        <v>148.328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A60" s="5" t="s">
         <v>10</v>
       </c>
@@ -2499,8 +2732,12 @@
       <c r="J60" s="11">
         <v>11059</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K60">
+        <f t="shared" si="0"/>
+        <v>148.328</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A61" s="5" t="s">
         <v>10</v>
       </c>
@@ -2531,8 +2768,12 @@
       <c r="J61" s="11">
         <v>11060</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K61">
+        <f t="shared" si="0"/>
+        <v>148.328</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A62" s="5" t="s">
         <v>10</v>
       </c>
@@ -2563,8 +2804,12 @@
       <c r="J62" s="11">
         <v>11061</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K62">
+        <f t="shared" si="0"/>
+        <v>148.328</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A63" s="5" t="s">
         <v>10</v>
       </c>
@@ -2595,8 +2840,12 @@
       <c r="J63" s="11">
         <v>11062</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K63">
+        <f t="shared" si="0"/>
+        <v>148.328</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A64" s="5" t="s">
         <v>10</v>
       </c>
@@ -2627,8 +2876,12 @@
       <c r="J64" s="11">
         <v>11063</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K64">
+        <f t="shared" si="0"/>
+        <v>148.328</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A65" s="5" t="s">
         <v>10</v>
       </c>
@@ -2659,8 +2912,12 @@
       <c r="J65" s="11">
         <v>11064</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K65">
+        <f t="shared" si="0"/>
+        <v>148.328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A66" s="5" t="s">
         <v>10</v>
       </c>
@@ -2691,8 +2948,12 @@
       <c r="J66" s="11">
         <v>11065</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K66">
+        <f t="shared" si="0"/>
+        <v>148.328</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A67" s="5" t="s">
         <v>10</v>
       </c>
@@ -2723,8 +2984,12 @@
       <c r="J67" s="11">
         <v>11066</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K67">
+        <f t="shared" ref="K67:K130" si="1">I67*H67</f>
+        <v>148.328</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A68" s="5" t="s">
         <v>10</v>
       </c>
@@ -2755,8 +3020,12 @@
       <c r="J68" s="11">
         <v>11067</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K68">
+        <f t="shared" si="1"/>
+        <v>148.328</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A69" s="5" t="s">
         <v>10</v>
       </c>
@@ -2787,8 +3056,12 @@
       <c r="J69" s="11">
         <v>11068</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K69">
+        <f t="shared" si="1"/>
+        <v>148.328</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A70" s="5" t="s">
         <v>10</v>
       </c>
@@ -2819,8 +3092,12 @@
       <c r="J70" s="11">
         <v>11069</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K70">
+        <f t="shared" si="1"/>
+        <v>148.328</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A71" s="5" t="s">
         <v>10</v>
       </c>
@@ -2851,8 +3128,12 @@
       <c r="J71" s="11">
         <v>11070</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K71">
+        <f t="shared" si="1"/>
+        <v>148.328</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A72" s="5" t="s">
         <v>10</v>
       </c>
@@ -2883,8 +3164,12 @@
       <c r="J72" s="11">
         <v>11071</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K72">
+        <f t="shared" si="1"/>
+        <v>148.328</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A73" s="5" t="s">
         <v>10</v>
       </c>
@@ -2915,8 +3200,12 @@
       <c r="J73" s="11">
         <v>11072</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K73">
+        <f t="shared" si="1"/>
+        <v>148.328</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A74" s="5" t="s">
         <v>10</v>
       </c>
@@ -2947,8 +3236,12 @@
       <c r="J74" s="11">
         <v>11073</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K74">
+        <f t="shared" si="1"/>
+        <v>148.328</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A75" s="5" t="s">
         <v>10</v>
       </c>
@@ -2979,8 +3272,12 @@
       <c r="J75" s="11">
         <v>11074</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K75">
+        <f t="shared" si="1"/>
+        <v>148.328</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -3011,8 +3308,12 @@
       <c r="J76" s="11">
         <v>11075</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K76">
+        <f t="shared" si="1"/>
+        <v>148.328</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A77" s="5" t="s">
         <v>10</v>
       </c>
@@ -3043,8 +3344,12 @@
       <c r="J77" s="11">
         <v>11076</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K77">
+        <f t="shared" si="1"/>
+        <v>324.8768</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A78" s="5" t="s">
         <v>10</v>
       </c>
@@ -3075,8 +3380,12 @@
       <c r="J78" s="11">
         <v>11077</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K78">
+        <f t="shared" si="1"/>
+        <v>324.8768</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A79" s="5" t="s">
         <v>10</v>
       </c>
@@ -3107,8 +3416,12 @@
       <c r="J79" s="11">
         <v>11078</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K79">
+        <f t="shared" si="1"/>
+        <v>162.4384</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A80" s="5" t="s">
         <v>10</v>
       </c>
@@ -3139,8 +3452,12 @@
       <c r="J80" s="11">
         <v>11079</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K80">
+        <f t="shared" si="1"/>
+        <v>812.19200000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A81" s="5" t="s">
         <v>10</v>
       </c>
@@ -3171,8 +3488,12 @@
       <c r="J81" s="11">
         <v>11080</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K81">
+        <f t="shared" si="1"/>
+        <v>162.4384</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A82" s="5" t="s">
         <v>10</v>
       </c>
@@ -3203,8 +3524,12 @@
       <c r="J82" s="11">
         <v>11081</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K82">
+        <f t="shared" si="1"/>
+        <v>162.4384</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A83" s="5" t="s">
         <v>10</v>
       </c>
@@ -3235,8 +3560,12 @@
       <c r="J83" s="11">
         <v>11082</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K83">
+        <f t="shared" si="1"/>
+        <v>162.4384</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -3267,8 +3596,12 @@
       <c r="J84" s="11">
         <v>11083</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K84">
+        <f t="shared" si="1"/>
+        <v>160.0515</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A85" s="5" t="s">
         <v>10</v>
       </c>
@@ -3299,8 +3632,12 @@
       <c r="J85" s="11">
         <v>11084</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K85">
+        <f t="shared" si="1"/>
+        <v>160.0515</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A86" s="5" t="s">
         <v>10</v>
       </c>
@@ -3331,8 +3668,12 @@
       <c r="J86" s="11">
         <v>11085</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K86">
+        <f t="shared" si="1"/>
+        <v>160.0515</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A87" s="5" t="s">
         <v>10</v>
       </c>
@@ -3363,8 +3704,12 @@
       <c r="J87" s="11">
         <v>11086</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K87">
+        <f t="shared" si="1"/>
+        <v>160.0515</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A88" s="5" t="s">
         <v>10</v>
       </c>
@@ -3395,8 +3740,12 @@
       <c r="J88" s="11">
         <v>11087</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K88">
+        <f t="shared" si="1"/>
+        <v>800.25750000000005</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A89" s="5" t="s">
         <v>10</v>
       </c>
@@ -3427,8 +3776,12 @@
       <c r="J89" s="11">
         <v>11088</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K89">
+        <f t="shared" si="1"/>
+        <v>160.0515</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A90" s="5" t="s">
         <v>10</v>
       </c>
@@ -3459,8 +3812,12 @@
       <c r="J90" s="11">
         <v>11089</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K90">
+        <f t="shared" si="1"/>
+        <v>480.15449999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A91" s="5" t="s">
         <v>10</v>
       </c>
@@ -3491,8 +3848,12 @@
       <c r="J91" s="11">
         <v>11090</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K91">
+        <f t="shared" si="1"/>
+        <v>320.10300000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A92" s="5" t="s">
         <v>10</v>
       </c>
@@ -3523,8 +3884,12 @@
       <c r="J92" s="11">
         <v>11091</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K92">
+        <f t="shared" si="1"/>
+        <v>160.0515</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A93" s="5" t="s">
         <v>10</v>
       </c>
@@ -3555,8 +3920,12 @@
       <c r="J93" s="11">
         <v>11092</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K93">
+        <f t="shared" si="1"/>
+        <v>160.0515</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A94" s="5" t="s">
         <v>10</v>
       </c>
@@ -3587,8 +3956,12 @@
       <c r="J94" s="11">
         <v>11093</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K94">
+        <f t="shared" si="1"/>
+        <v>320.10300000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A95" s="5" t="s">
         <v>10</v>
       </c>
@@ -3619,8 +3992,12 @@
       <c r="J95" s="11">
         <v>11094</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K95">
+        <f t="shared" si="1"/>
+        <v>160.0515</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A96" s="5" t="s">
         <v>10</v>
       </c>
@@ -3651,8 +4028,12 @@
       <c r="J96" s="11">
         <v>11095</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K96">
+        <f t="shared" si="1"/>
+        <v>320.10300000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A97" s="5" t="s">
         <v>10</v>
       </c>
@@ -3683,8 +4064,12 @@
       <c r="J97" s="11">
         <v>11096</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K97">
+        <f t="shared" si="1"/>
+        <v>320.10300000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A98" s="5" t="s">
         <v>10</v>
       </c>
@@ -3715,8 +4100,12 @@
       <c r="J98" s="11">
         <v>11097</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K98">
+        <f t="shared" si="1"/>
+        <v>160.0515</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A99" s="5" t="s">
         <v>10</v>
       </c>
@@ -3747,8 +4136,12 @@
       <c r="J99" s="11">
         <v>11098</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K99">
+        <f t="shared" si="1"/>
+        <v>160.0515</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A100" s="5" t="s">
         <v>10</v>
       </c>
@@ -3779,8 +4172,12 @@
       <c r="J100" s="11">
         <v>11099</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K100">
+        <f t="shared" si="1"/>
+        <v>160.0515</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A101" s="5" t="s">
         <v>10</v>
       </c>
@@ -3811,8 +4208,12 @@
       <c r="J101" s="11">
         <v>11100</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K101">
+        <f t="shared" si="1"/>
+        <v>160.0515</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A102" s="5" t="s">
         <v>10</v>
       </c>
@@ -3843,8 +4244,12 @@
       <c r="J102" s="11">
         <v>11101</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K102">
+        <f t="shared" si="1"/>
+        <v>160.0515</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A103" s="5" t="s">
         <v>10</v>
       </c>
@@ -3875,8 +4280,12 @@
       <c r="J103" s="11">
         <v>11102</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K103">
+        <f t="shared" si="1"/>
+        <v>160.0515</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A104" s="5" t="s">
         <v>10</v>
       </c>
@@ -3907,8 +4316,12 @@
       <c r="J104" s="11">
         <v>11103</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K104">
+        <f t="shared" si="1"/>
+        <v>160.0515</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A105" s="5" t="s">
         <v>10</v>
       </c>
@@ -3939,8 +4352,12 @@
       <c r="J105" s="11">
         <v>11104</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K105">
+        <f t="shared" si="1"/>
+        <v>160.0515</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A106" s="5" t="s">
         <v>10</v>
       </c>
@@ -3971,8 +4388,12 @@
       <c r="J106" s="11">
         <v>11105</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K106">
+        <f t="shared" si="1"/>
+        <v>160.0515</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A107" s="5" t="s">
         <v>10</v>
       </c>
@@ -4003,8 +4424,12 @@
       <c r="J107" s="11">
         <v>11106</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K107">
+        <f t="shared" si="1"/>
+        <v>160.0515</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
@@ -4035,8 +4460,12 @@
       <c r="J108" s="11">
         <v>11107</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K108">
+        <f t="shared" si="1"/>
+        <v>160.0515</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A109" s="5" t="s">
         <v>10</v>
       </c>
@@ -4067,8 +4496,12 @@
       <c r="J109" s="11">
         <v>11108</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K109">
+        <f t="shared" si="1"/>
+        <v>160.0515</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A110" s="5" t="s">
         <v>10</v>
       </c>
@@ -4099,8 +4532,12 @@
       <c r="J110" s="11">
         <v>11109</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K110">
+        <f t="shared" si="1"/>
+        <v>160.0515</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A111" s="5" t="s">
         <v>10</v>
       </c>
@@ -4131,8 +4568,12 @@
       <c r="J111" s="11">
         <v>11110</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K111">
+        <f t="shared" si="1"/>
+        <v>160.0515</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A112" s="5" t="s">
         <v>10</v>
       </c>
@@ -4163,8 +4604,12 @@
       <c r="J112" s="11">
         <v>11111</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K112">
+        <f t="shared" si="1"/>
+        <v>160.0515</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A113" s="5" t="s">
         <v>10</v>
       </c>
@@ -4195,8 +4640,12 @@
       <c r="J113" s="11">
         <v>11112</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K113">
+        <f t="shared" si="1"/>
+        <v>136.83070000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A114" s="5" t="s">
         <v>10</v>
       </c>
@@ -4227,8 +4676,12 @@
       <c r="J114" s="11">
         <v>11113</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K114">
+        <f t="shared" si="1"/>
+        <v>136.83070000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A115" s="5" t="s">
         <v>10</v>
       </c>
@@ -4259,8 +4712,12 @@
       <c r="J115" s="11">
         <v>11114</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K115">
+        <f t="shared" si="1"/>
+        <v>136.83070000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A116" s="5" t="s">
         <v>10</v>
       </c>
@@ -4291,8 +4748,12 @@
       <c r="J116" s="11">
         <v>11115</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K116">
+        <f t="shared" si="1"/>
+        <v>136.7159</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A117" s="5" t="s">
         <v>10</v>
       </c>
@@ -4323,8 +4784,12 @@
       <c r="J117" s="11">
         <v>11116</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K117">
+        <f t="shared" si="1"/>
+        <v>136.7159</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A118" s="5" t="s">
         <v>10</v>
       </c>
@@ -4355,8 +4820,12 @@
       <c r="J118" s="11">
         <v>11117</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K118">
+        <f t="shared" si="1"/>
+        <v>136.7159</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A119" s="5" t="s">
         <v>10</v>
       </c>
@@ -4387,8 +4856,12 @@
       <c r="J119" s="11">
         <v>11118</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K119">
+        <f t="shared" si="1"/>
+        <v>136.7159</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A120" s="5" t="s">
         <v>10</v>
       </c>
@@ -4419,8 +4892,12 @@
       <c r="J120" s="11">
         <v>11119</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K120">
+        <f t="shared" si="1"/>
+        <v>136.7159</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A121" s="5" t="s">
         <v>10</v>
       </c>
@@ -4451,8 +4928,12 @@
       <c r="J121" s="11">
         <v>11120</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K121">
+        <f t="shared" si="1"/>
+        <v>136.7159</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A122" s="5" t="s">
         <v>10</v>
       </c>
@@ -4483,8 +4964,12 @@
       <c r="J122" s="11">
         <v>11121</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K122">
+        <f t="shared" si="1"/>
+        <v>136.7159</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A123" s="5" t="s">
         <v>10</v>
       </c>
@@ -4515,8 +5000,12 @@
       <c r="J123" s="11">
         <v>11122</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K123">
+        <f t="shared" si="1"/>
+        <v>136.7159</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A124" s="5" t="s">
         <v>10</v>
       </c>
@@ -4547,8 +5036,12 @@
       <c r="J124" s="11">
         <v>11123</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K124">
+        <f t="shared" si="1"/>
+        <v>144.57429999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A125" s="5" t="s">
         <v>10</v>
       </c>
@@ -4579,8 +5072,12 @@
       <c r="J125" s="11">
         <v>11124</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K125">
+        <f t="shared" si="1"/>
+        <v>144.57419999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A126" s="5" t="s">
         <v>10</v>
       </c>
@@ -4611,8 +5108,12 @@
       <c r="J126" s="11">
         <v>11125</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K126">
+        <f t="shared" si="1"/>
+        <v>144.57419999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A127" s="5" t="s">
         <v>10</v>
       </c>
@@ -4643,8 +5144,12 @@
       <c r="J127" s="11">
         <v>11126</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K127">
+        <f t="shared" si="1"/>
+        <v>144.57429999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A128" s="5" t="s">
         <v>10</v>
       </c>
@@ -4675,8 +5180,12 @@
       <c r="J128" s="11">
         <v>11127</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K128">
+        <f t="shared" si="1"/>
+        <v>144.57419999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A129" s="5" t="s">
         <v>10</v>
       </c>
@@ -4707,8 +5216,12 @@
       <c r="J129" s="11">
         <v>11128</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K129">
+        <f t="shared" si="1"/>
+        <v>433.72280000000103</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A130" s="5" t="s">
         <v>10</v>
       </c>
@@ -4739,8 +5252,12 @@
       <c r="J130" s="11">
         <v>11129</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K130">
+        <f t="shared" si="1"/>
+        <v>433.72280000000103</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A131" s="5" t="s">
         <v>10</v>
       </c>
@@ -4771,8 +5288,12 @@
       <c r="J131" s="11">
         <v>11130</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K131">
+        <f t="shared" ref="K131:K194" si="2">I131*H131</f>
+        <v>836.29480000000194</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A132" s="5" t="s">
         <v>10</v>
       </c>
@@ -4803,8 +5324,12 @@
       <c r="J132" s="11">
         <v>11131</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K132">
+        <f t="shared" si="2"/>
+        <v>121.2818</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A133" s="5" t="s">
         <v>10</v>
       </c>
@@ -4835,8 +5360,12 @@
       <c r="J133" s="11">
         <v>11132</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K133">
+        <f t="shared" si="2"/>
+        <v>152.36009999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A134" s="5" t="s">
         <v>10</v>
       </c>
@@ -4867,8 +5396,12 @@
       <c r="J134" s="11">
         <v>11133</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K134">
+        <f t="shared" si="2"/>
+        <v>152.36009999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A135" s="5" t="s">
         <v>10</v>
       </c>
@@ -4899,8 +5432,12 @@
       <c r="J135" s="11">
         <v>11134</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K135">
+        <f t="shared" si="2"/>
+        <v>152.36009999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A136" s="5" t="s">
         <v>10</v>
       </c>
@@ -4931,8 +5468,12 @@
       <c r="J136" s="11">
         <v>11135</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K136">
+        <f t="shared" si="2"/>
+        <v>152.36009999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A137" s="5" t="s">
         <v>10</v>
       </c>
@@ -4963,8 +5504,12 @@
       <c r="J137" s="11">
         <v>11136</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K137">
+        <f t="shared" si="2"/>
+        <v>162.18279999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A138" s="5" t="s">
         <v>10</v>
       </c>
@@ -4995,8 +5540,12 @@
       <c r="J138" s="11">
         <v>11137</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K138">
+        <f t="shared" si="2"/>
+        <v>162.18279999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A139" s="5" t="s">
         <v>10</v>
       </c>
@@ -5027,8 +5576,12 @@
       <c r="J139" s="11">
         <v>11138</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K139">
+        <f t="shared" si="2"/>
+        <v>162.18279999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A140" s="5" t="s">
         <v>10</v>
       </c>
@@ -5059,8 +5612,12 @@
       <c r="J140" s="11">
         <v>11139</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K140">
+        <f t="shared" si="2"/>
+        <v>162.18279999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A141" s="5" t="s">
         <v>10</v>
       </c>
@@ -5091,8 +5648,12 @@
       <c r="J141" s="11">
         <v>11140</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K141">
+        <f t="shared" si="2"/>
+        <v>162.18279999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A142" s="5" t="s">
         <v>10</v>
       </c>
@@ -5123,8 +5684,12 @@
       <c r="J142" s="11">
         <v>11141</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K142">
+        <f t="shared" si="2"/>
+        <v>162.18279999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A143" s="5" t="s">
         <v>10</v>
       </c>
@@ -5155,8 +5720,12 @@
       <c r="J143" s="11">
         <v>11142</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K143">
+        <f t="shared" si="2"/>
+        <v>144.85509999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A144" s="5" t="s">
         <v>10</v>
       </c>
@@ -5187,8 +5756,12 @@
       <c r="J144" s="11">
         <v>11143</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K144">
+        <f t="shared" si="2"/>
+        <v>289.71019999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A145" s="5" t="s">
         <v>10</v>
       </c>
@@ -5219,8 +5792,12 @@
       <c r="J145" s="11">
         <v>11144</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K145">
+        <f t="shared" si="2"/>
+        <v>144.85509999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A146" s="5" t="s">
         <v>10</v>
       </c>
@@ -5251,8 +5828,12 @@
       <c r="J146" s="11">
         <v>11145</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K146">
+        <f t="shared" si="2"/>
+        <v>289.71019999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A147" s="5" t="s">
         <v>10</v>
       </c>
@@ -5283,8 +5864,12 @@
       <c r="J147" s="11">
         <v>11146</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K147">
+        <f t="shared" si="2"/>
+        <v>144.85509999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A148" s="5" t="s">
         <v>10</v>
       </c>
@@ -5315,8 +5900,12 @@
       <c r="J148" s="11">
         <v>11147</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K148">
+        <f t="shared" si="2"/>
+        <v>289.71019999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A149" s="5" t="s">
         <v>10</v>
       </c>
@@ -5347,8 +5936,12 @@
       <c r="J149" s="11">
         <v>11148</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K149">
+        <f t="shared" si="2"/>
+        <v>736.16179999999997</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A150" s="5" t="s">
         <v>10</v>
       </c>
@@ -5379,8 +5972,12 @@
       <c r="J150" s="11">
         <v>11149</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K150">
+        <f t="shared" si="2"/>
+        <v>147.23240000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A151" s="5" t="s">
         <v>10</v>
       </c>
@@ -5411,8 +6008,12 @@
       <c r="J151" s="11">
         <v>11150</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K151">
+        <f t="shared" si="2"/>
+        <v>294.46469999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A152" s="5" t="s">
         <v>10</v>
       </c>
@@ -5443,8 +6044,12 @@
       <c r="J152" s="11">
         <v>11151</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K152">
+        <f t="shared" si="2"/>
+        <v>294.46469999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A153" s="5" t="s">
         <v>10</v>
       </c>
@@ -5475,8 +6080,12 @@
       <c r="J153" s="11">
         <v>11152</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K153">
+        <f t="shared" si="2"/>
+        <v>147.23240000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A154" s="5" t="s">
         <v>10</v>
       </c>
@@ -5507,8 +6116,12 @@
       <c r="J154" s="11">
         <v>11153</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K154">
+        <f t="shared" si="2"/>
+        <v>147.23240000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A155" s="5" t="s">
         <v>10</v>
       </c>
@@ -5539,8 +6152,12 @@
       <c r="J155" s="11">
         <v>11154</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K155">
+        <f t="shared" si="2"/>
+        <v>147.23240000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A156" s="5" t="s">
         <v>10</v>
       </c>
@@ -5571,8 +6188,12 @@
       <c r="J156" s="11">
         <v>11155</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K156">
+        <f t="shared" si="2"/>
+        <v>147.23240000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A157" s="5" t="s">
         <v>10</v>
       </c>
@@ -5603,8 +6224,12 @@
       <c r="J157" s="11">
         <v>11156</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K157">
+        <f t="shared" si="2"/>
+        <v>588.92949999999996</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A158" s="5" t="s">
         <v>10</v>
       </c>
@@ -5635,8 +6260,12 @@
       <c r="J158" s="11">
         <v>11157</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K158">
+        <f t="shared" si="2"/>
+        <v>147.23240000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A159" s="5" t="s">
         <v>10</v>
       </c>
@@ -5667,8 +6296,12 @@
       <c r="J159" s="11">
         <v>11158</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K159">
+        <f t="shared" si="2"/>
+        <v>441.697100000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A160" s="5" t="s">
         <v>10</v>
       </c>
@@ -5699,8 +6332,12 @@
       <c r="J160" s="11">
         <v>11159</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K160">
+        <f t="shared" si="2"/>
+        <v>147.23240000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A161" s="5" t="s">
         <v>10</v>
       </c>
@@ -5731,8 +6368,12 @@
       <c r="J161" s="11">
         <v>11160</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K161">
+        <f t="shared" si="2"/>
+        <v>147.23240000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A162" s="5" t="s">
         <v>10</v>
       </c>
@@ -5763,8 +6404,12 @@
       <c r="J162" s="11">
         <v>11161</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K162">
+        <f t="shared" si="2"/>
+        <v>294.46469999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A163" s="5" t="s">
         <v>10</v>
       </c>
@@ -5795,8 +6440,12 @@
       <c r="J163" s="11">
         <v>11162</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K163">
+        <f t="shared" si="2"/>
+        <v>147.23240000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A164" s="5" t="s">
         <v>10</v>
       </c>
@@ -5827,8 +6476,12 @@
       <c r="J164" s="11">
         <v>11163</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K164">
+        <f t="shared" si="2"/>
+        <v>294.46469999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A165" s="5" t="s">
         <v>10</v>
       </c>
@@ -5859,8 +6512,12 @@
       <c r="J165" s="11">
         <v>11164</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K165">
+        <f t="shared" si="2"/>
+        <v>147.23240000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A166" s="5" t="s">
         <v>10</v>
       </c>
@@ -5891,8 +6548,12 @@
       <c r="J166" s="11">
         <v>11165</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K166">
+        <f t="shared" si="2"/>
+        <v>147.23240000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A167" s="5" t="s">
         <v>10</v>
       </c>
@@ -5923,8 +6584,12 @@
       <c r="J167" s="11">
         <v>11166</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K167">
+        <f t="shared" si="2"/>
+        <v>140.96899999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A168" s="5" t="s">
         <v>10</v>
       </c>
@@ -5955,8 +6620,12 @@
       <c r="J168" s="11">
         <v>11167</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K168">
+        <f t="shared" si="2"/>
+        <v>140.96899999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A169" s="5" t="s">
         <v>10</v>
       </c>
@@ -5987,8 +6656,12 @@
       <c r="J169" s="11">
         <v>11168</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K169">
+        <f t="shared" si="2"/>
+        <v>140.96899999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A170" s="5" t="s">
         <v>10</v>
       </c>
@@ -6019,8 +6692,12 @@
       <c r="J170" s="11">
         <v>11169</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K170">
+        <f t="shared" si="2"/>
+        <v>117.6601</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A171" s="5" t="s">
         <v>10</v>
       </c>
@@ -6051,8 +6728,12 @@
       <c r="J171" s="11">
         <v>11170</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K171">
+        <f t="shared" si="2"/>
+        <v>117.6601</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A172" s="5" t="s">
         <v>10</v>
       </c>
@@ -6083,8 +6764,12 @@
       <c r="J172" s="11">
         <v>11171</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K172">
+        <f t="shared" si="2"/>
+        <v>235.3202</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A173" s="5" t="s">
         <v>10</v>
       </c>
@@ -6115,8 +6800,12 @@
       <c r="J173" s="11">
         <v>11172</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K173">
+        <f t="shared" si="2"/>
+        <v>117.6601</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A174" s="5" t="s">
         <v>10</v>
       </c>
@@ -6147,8 +6836,12 @@
       <c r="J174" s="11">
         <v>11173</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K174">
+        <f t="shared" si="2"/>
+        <v>117.6601</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A175" s="5" t="s">
         <v>10</v>
       </c>
@@ -6179,8 +6872,12 @@
       <c r="J175" s="11">
         <v>11174</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K175">
+        <f t="shared" si="2"/>
+        <v>143.64859999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A176" s="5" t="s">
         <v>10</v>
       </c>
@@ -6211,8 +6908,12 @@
       <c r="J176" s="11">
         <v>11175</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K176">
+        <f t="shared" si="2"/>
+        <v>143.64859999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A177" s="5" t="s">
         <v>10</v>
       </c>
@@ -6243,8 +6944,12 @@
       <c r="J177" s="11">
         <v>11176</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K177">
+        <f t="shared" si="2"/>
+        <v>143.64850000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A178" s="5" t="s">
         <v>10</v>
       </c>
@@ -6275,8 +6980,12 @@
       <c r="J178" s="11">
         <v>11177</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K178">
+        <f t="shared" si="2"/>
+        <v>143.64859999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A179" s="5" t="s">
         <v>10</v>
       </c>
@@ -6307,8 +7016,12 @@
       <c r="J179" s="11">
         <v>11178</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K179">
+        <f t="shared" si="2"/>
+        <v>143.64859999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A180" s="5" t="s">
         <v>10</v>
       </c>
@@ -6339,8 +7052,12 @@
       <c r="J180" s="11">
         <v>11179</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K180">
+        <f t="shared" si="2"/>
+        <v>143.64859999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A181" s="5" t="s">
         <v>10</v>
       </c>
@@ -6371,8 +7088,12 @@
       <c r="J181" s="11">
         <v>11180</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K181">
+        <f t="shared" si="2"/>
+        <v>143.64850000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A182" s="5" t="s">
         <v>10</v>
       </c>
@@ -6403,8 +7124,12 @@
       <c r="J182" s="11">
         <v>11181</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K182">
+        <f t="shared" si="2"/>
+        <v>143.64859999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A183" s="5" t="s">
         <v>10</v>
       </c>
@@ -6435,8 +7160,12 @@
       <c r="J183" s="11">
         <v>11182</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K183">
+        <f t="shared" si="2"/>
+        <v>148.5215</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A184" s="5" t="s">
         <v>10</v>
       </c>
@@ -6467,8 +7196,12 @@
       <c r="J184" s="11">
         <v>11183</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K184">
+        <f t="shared" si="2"/>
+        <v>148.5215</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A185" s="5" t="s">
         <v>10</v>
       </c>
@@ -6499,8 +7232,12 @@
       <c r="J185" s="11">
         <v>11184</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K185">
+        <f t="shared" si="2"/>
+        <v>445.564400000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A186" s="5" t="s">
         <v>10</v>
       </c>
@@ -6531,8 +7268,12 @@
       <c r="J186" s="11">
         <v>11185</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K186">
+        <f t="shared" si="2"/>
+        <v>148.5215</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A187" s="5" t="s">
         <v>10</v>
       </c>
@@ -6563,8 +7304,12 @@
       <c r="J187" s="11">
         <v>11186</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K187">
+        <f t="shared" si="2"/>
+        <v>148.5215</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A188" s="5" t="s">
         <v>10</v>
       </c>
@@ -6595,8 +7340,12 @@
       <c r="J188" s="11">
         <v>11187</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K188">
+        <f t="shared" si="2"/>
+        <v>148.5215</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A189" s="5" t="s">
         <v>10</v>
       </c>
@@ -6627,8 +7376,12 @@
       <c r="J189" s="11">
         <v>11188</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K189">
+        <f t="shared" si="2"/>
+        <v>148.5215</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A190" s="5" t="s">
         <v>10</v>
       </c>
@@ -6659,8 +7412,12 @@
       <c r="J190" s="11">
         <v>11189</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K190">
+        <f t="shared" si="2"/>
+        <v>148.5215</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A191" s="5" t="s">
         <v>10</v>
       </c>
@@ -6691,8 +7448,12 @@
       <c r="J191" s="11">
         <v>11190</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K191">
+        <f t="shared" si="2"/>
+        <v>148.5214</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A192" s="5" t="s">
         <v>10</v>
       </c>
@@ -6723,8 +7484,12 @@
       <c r="J192" s="11">
         <v>11191</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K192">
+        <f t="shared" si="2"/>
+        <v>148.5215</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A193" s="5" t="s">
         <v>10</v>
       </c>
@@ -6755,8 +7520,12 @@
       <c r="J193" s="11">
         <v>11192</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K193">
+        <f t="shared" si="2"/>
+        <v>297.04289999999997</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A194" s="5" t="s">
         <v>10</v>
       </c>
@@ -6787,8 +7556,12 @@
       <c r="J194" s="11">
         <v>11193</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K194">
+        <f t="shared" si="2"/>
+        <v>148.5215</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A195" s="5" t="s">
         <v>10</v>
       </c>
@@ -6819,8 +7592,12 @@
       <c r="J195" s="11">
         <v>11194</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K195">
+        <f t="shared" ref="K195:K258" si="3">I195*H195</f>
+        <v>148.5215</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A196" s="5" t="s">
         <v>10</v>
       </c>
@@ -6851,8 +7628,12 @@
       <c r="J196" s="11">
         <v>11195</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K196">
+        <f t="shared" si="3"/>
+        <v>148.5215</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A197" s="5" t="s">
         <v>10</v>
       </c>
@@ -6883,8 +7664,12 @@
       <c r="J197" s="11">
         <v>11196</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K197">
+        <f t="shared" si="3"/>
+        <v>262.90629999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A198" s="5" t="s">
         <v>10</v>
       </c>
@@ -6915,8 +7700,12 @@
       <c r="J198" s="11">
         <v>11197</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K198">
+        <f t="shared" si="3"/>
+        <v>920.17190000000301</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A199" s="5" t="s">
         <v>10</v>
       </c>
@@ -6947,8 +7736,12 @@
       <c r="J199" s="11">
         <v>11198</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K199">
+        <f t="shared" si="3"/>
+        <v>131.45310000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A200" s="5" t="s">
         <v>10</v>
       </c>
@@ -6979,8 +7772,12 @@
       <c r="J200" s="11">
         <v>11199</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K200">
+        <f t="shared" si="3"/>
+        <v>146.5993</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A201" s="5" t="s">
         <v>10</v>
       </c>
@@ -7011,8 +7808,12 @@
       <c r="J201" s="11">
         <v>11200</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K201">
+        <f t="shared" si="3"/>
+        <v>146.5993</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A202" s="5" t="s">
         <v>10</v>
       </c>
@@ -7043,8 +7844,12 @@
       <c r="J202" s="11">
         <v>11201</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K202">
+        <f t="shared" si="3"/>
+        <v>293.19850000000002</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A203" s="5" t="s">
         <v>10</v>
       </c>
@@ -7075,8 +7880,12 @@
       <c r="J203" s="11">
         <v>11202</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K203">
+        <f t="shared" si="3"/>
+        <v>586.39700000000005</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A204" s="5" t="s">
         <v>10</v>
       </c>
@@ -7107,8 +7916,12 @@
       <c r="J204" s="11">
         <v>11203</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K204">
+        <f t="shared" si="3"/>
+        <v>146.5993</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A205" s="5" t="s">
         <v>10</v>
       </c>
@@ -7139,8 +7952,12 @@
       <c r="J205" s="11">
         <v>11204</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K205">
+        <f t="shared" si="3"/>
+        <v>758.22540000000004</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A206" s="5" t="s">
         <v>10</v>
       </c>
@@ -7171,8 +7988,12 @@
       <c r="J206" s="11">
         <v>11205</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K206">
+        <f t="shared" si="3"/>
+        <v>181.11590000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A207" s="5" t="s">
         <v>10</v>
       </c>
@@ -7203,8 +8024,12 @@
       <c r="J207" s="11">
         <v>11206</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K207">
+        <f t="shared" si="3"/>
+        <v>362.23180000000002</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A208" s="5" t="s">
         <v>10</v>
       </c>
@@ -7235,8 +8060,12 @@
       <c r="J208" s="11">
         <v>11207</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K208">
+        <f t="shared" si="3"/>
+        <v>465.92669999999998</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A209" s="5" t="s">
         <v>10</v>
       </c>
@@ -7267,8 +8096,12 @@
       <c r="J209" s="11">
         <v>11208</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K209">
+        <f t="shared" si="3"/>
+        <v>155.30889999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A210" s="5" t="s">
         <v>10</v>
       </c>
@@ -7299,8 +8132,12 @@
       <c r="J210" s="11">
         <v>11209</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K210">
+        <f t="shared" si="3"/>
+        <v>155.30889999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A211" s="5" t="s">
         <v>10</v>
       </c>
@@ -7331,8 +8168,12 @@
       <c r="J211" s="11">
         <v>11210</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K211">
+        <f t="shared" si="3"/>
+        <v>155.30889999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A212" s="5" t="s">
         <v>10</v>
       </c>
@@ -7363,8 +8204,12 @@
       <c r="J212" s="11">
         <v>11211</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K212">
+        <f t="shared" si="3"/>
+        <v>155.30889999999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A213" s="5" t="s">
         <v>10</v>
       </c>
@@ -7395,8 +8240,12 @@
       <c r="J213" s="11">
         <v>11212</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K213">
+        <f t="shared" si="3"/>
+        <v>155.30889999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A214" s="5" t="s">
         <v>10</v>
       </c>
@@ -7427,8 +8276,12 @@
       <c r="J214" s="11">
         <v>11213</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K214">
+        <f t="shared" si="3"/>
+        <v>155.30889999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A215" s="5" t="s">
         <v>10</v>
       </c>
@@ -7459,8 +8312,12 @@
       <c r="J215" s="11">
         <v>11214</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K215">
+        <f t="shared" si="3"/>
+        <v>155.30889999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A216" s="5" t="s">
         <v>10</v>
       </c>
@@ -7491,8 +8348,12 @@
       <c r="J216" s="11">
         <v>11215</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K216">
+        <f t="shared" si="3"/>
+        <v>310.61779999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A217" s="5" t="s">
         <v>10</v>
       </c>
@@ -7523,8 +8384,12 @@
       <c r="J217" s="11">
         <v>11216</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K217">
+        <f t="shared" si="3"/>
+        <v>155.30889999999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A218" s="5" t="s">
         <v>10</v>
       </c>
@@ -7555,8 +8420,12 @@
       <c r="J218" s="11">
         <v>11217</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K218">
+        <f t="shared" si="3"/>
+        <v>155.30889999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A219" s="5" t="s">
         <v>10</v>
       </c>
@@ -7587,8 +8456,12 @@
       <c r="J219" s="11">
         <v>11218</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K219">
+        <f t="shared" si="3"/>
+        <v>155.30889999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A220" s="5" t="s">
         <v>10</v>
       </c>
@@ -7619,8 +8492,12 @@
       <c r="J220" s="11">
         <v>11219</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K220">
+        <f t="shared" si="3"/>
+        <v>155.30889999999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A221" s="5" t="s">
         <v>10</v>
       </c>
@@ -7651,8 +8528,12 @@
       <c r="J221" s="11">
         <v>11220</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K221">
+        <f t="shared" si="3"/>
+        <v>798.2505000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A222" s="5" t="s">
         <v>10</v>
       </c>
@@ -7683,8 +8564,12 @@
       <c r="J222" s="11">
         <v>11221</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K222">
+        <f t="shared" si="3"/>
+        <v>159.65010000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A223" s="5" t="s">
         <v>10</v>
       </c>
@@ -7715,8 +8600,12 @@
       <c r="J223" s="11">
         <v>11222</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K223">
+        <f t="shared" si="3"/>
+        <v>159.65010000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A224" s="5" t="s">
         <v>10</v>
       </c>
@@ -7747,8 +8636,12 @@
       <c r="J224" s="11">
         <v>11223</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K224">
+        <f t="shared" si="3"/>
+        <v>159.65010000000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A225" s="5" t="s">
         <v>10</v>
       </c>
@@ -7779,8 +8672,12 @@
       <c r="J225" s="11">
         <v>11224</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K225">
+        <f t="shared" si="3"/>
+        <v>159.65010000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A226" s="5" t="s">
         <v>10</v>
       </c>
@@ -7811,8 +8708,12 @@
       <c r="J226" s="11">
         <v>11225</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K226">
+        <f t="shared" si="3"/>
+        <v>159.65010000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A227" s="5" t="s">
         <v>10</v>
       </c>
@@ -7843,8 +8744,12 @@
       <c r="J227" s="11">
         <v>11226</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K227">
+        <f t="shared" si="3"/>
+        <v>159.65010000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A228" s="5" t="s">
         <v>10</v>
       </c>
@@ -7875,8 +8780,12 @@
       <c r="J228" s="11">
         <v>11227</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K228">
+        <f t="shared" si="3"/>
+        <v>145.0531</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A229" s="5" t="s">
         <v>10</v>
       </c>
@@ -7907,8 +8816,12 @@
       <c r="J229" s="11">
         <v>11228</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K229">
+        <f t="shared" si="3"/>
+        <v>145.0531</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A230" s="5" t="s">
         <v>10</v>
       </c>
@@ -7939,8 +8852,12 @@
       <c r="J230" s="11">
         <v>11229</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K230">
+        <f t="shared" si="3"/>
+        <v>145.0531</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A231" s="5" t="s">
         <v>10</v>
       </c>
@@ -7971,8 +8888,12 @@
       <c r="J231" s="11">
         <v>11230</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K231">
+        <f t="shared" si="3"/>
+        <v>145.0531</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A232" s="5" t="s">
         <v>10</v>
       </c>
@@ -8003,8 +8924,12 @@
       <c r="J232" s="11">
         <v>11231</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K232">
+        <f t="shared" si="3"/>
+        <v>145.0531</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A233" s="5" t="s">
         <v>10</v>
       </c>
@@ -8035,8 +8960,12 @@
       <c r="J233" s="11">
         <v>11232</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K233">
+        <f t="shared" si="3"/>
+        <v>145.0531</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A234" s="5" t="s">
         <v>10</v>
       </c>
@@ -8067,8 +8996,12 @@
       <c r="J234" s="11">
         <v>11233</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K234">
+        <f t="shared" si="3"/>
+        <v>145.2731</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A235" s="5" t="s">
         <v>10</v>
       </c>
@@ -8099,8 +9032,12 @@
       <c r="J235" s="11">
         <v>11234</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K235">
+        <f t="shared" si="3"/>
+        <v>145.2731</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A236" s="5" t="s">
         <v>10</v>
       </c>
@@ -8131,8 +9068,12 @@
       <c r="J236" s="11">
         <v>11235</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K236">
+        <f t="shared" si="3"/>
+        <v>145.2731</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A237" s="5" t="s">
         <v>10</v>
       </c>
@@ -8163,8 +9104,12 @@
       <c r="J237" s="11">
         <v>11236</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K237">
+        <f t="shared" si="3"/>
+        <v>144.38550000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A238" s="5" t="s">
         <v>10</v>
       </c>
@@ -8195,8 +9140,12 @@
       <c r="J238" s="11">
         <v>11237</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K238">
+        <f t="shared" si="3"/>
+        <v>288.77100000000002</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A239" s="5" t="s">
         <v>10</v>
       </c>
@@ -8227,8 +9176,12 @@
       <c r="J239" s="11">
         <v>11238</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K239">
+        <f t="shared" si="3"/>
+        <v>144.38550000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A240" s="5" t="s">
         <v>10</v>
       </c>
@@ -8259,8 +9212,12 @@
       <c r="J240" s="11">
         <v>11239</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K240">
+        <f t="shared" si="3"/>
+        <v>144.38550000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A241" s="5" t="s">
         <v>10</v>
       </c>
@@ -8291,8 +9248,12 @@
       <c r="J241" s="11">
         <v>11240</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K241">
+        <f t="shared" si="3"/>
+        <v>144.38550000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A242" s="5" t="s">
         <v>10</v>
       </c>
@@ -8323,8 +9284,12 @@
       <c r="J242" s="11">
         <v>11241</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K242">
+        <f t="shared" si="3"/>
+        <v>144.38550000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A243" s="5" t="s">
         <v>10</v>
       </c>
@@ -8355,8 +9320,12 @@
       <c r="J243" s="11">
         <v>11242</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K243">
+        <f t="shared" si="3"/>
+        <v>144.38550000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A244" s="5" t="s">
         <v>10</v>
       </c>
@@ -8387,8 +9356,12 @@
       <c r="J244" s="11">
         <v>11243</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K244">
+        <f t="shared" si="3"/>
+        <v>149.38919999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A245" s="5" t="s">
         <v>10</v>
       </c>
@@ -8419,8 +9392,12 @@
       <c r="J245" s="11">
         <v>11244</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K245">
+        <f t="shared" si="3"/>
+        <v>149.38919999999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A246" s="5" t="s">
         <v>10</v>
       </c>
@@ -8451,8 +9428,12 @@
       <c r="J246" s="11">
         <v>11245</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K246">
+        <f t="shared" si="3"/>
+        <v>149.38919999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A247" s="5" t="s">
         <v>10</v>
       </c>
@@ -8483,8 +9464,12 @@
       <c r="J247" s="11">
         <v>11246</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K247">
+        <f t="shared" si="3"/>
+        <v>149.38919999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A248" s="5" t="s">
         <v>10</v>
       </c>
@@ -8515,8 +9500,12 @@
       <c r="J248" s="11">
         <v>11247</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K248">
+        <f t="shared" si="3"/>
+        <v>149.38919999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A249" s="5" t="s">
         <v>10</v>
       </c>
@@ -8547,8 +9536,12 @@
       <c r="J249" s="11">
         <v>11248</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K249">
+        <f t="shared" si="3"/>
+        <v>298.77839999999998</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A250" s="5" t="s">
         <v>10</v>
       </c>
@@ -8579,8 +9572,12 @@
       <c r="J250" s="11">
         <v>11249</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K250">
+        <f t="shared" si="3"/>
+        <v>149.38919999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A251" s="5" t="s">
         <v>10</v>
       </c>
@@ -8611,8 +9608,12 @@
       <c r="J251" s="11">
         <v>11250</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K251">
+        <f t="shared" si="3"/>
+        <v>149.38919999999999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A252" s="5" t="s">
         <v>10</v>
       </c>
@@ -8643,8 +9644,12 @@
       <c r="J252" s="11">
         <v>11251</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K252">
+        <f t="shared" si="3"/>
+        <v>143.87010000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A253" s="5" t="s">
         <v>10</v>
       </c>
@@ -8675,8 +9680,12 @@
       <c r="J253" s="11">
         <v>11252</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K253">
+        <f t="shared" si="3"/>
+        <v>143.87010000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A254" s="5" t="s">
         <v>10</v>
       </c>
@@ -8707,8 +9716,12 @@
       <c r="J254" s="11">
         <v>11253</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K254">
+        <f t="shared" si="3"/>
+        <v>143.87010000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A255" s="5" t="s">
         <v>10</v>
       </c>
@@ -8739,8 +9752,12 @@
       <c r="J255" s="11">
         <v>11254</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K255">
+        <f t="shared" si="3"/>
+        <v>148.41390000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A256" s="5" t="s">
         <v>10</v>
       </c>
@@ -8771,8 +9788,12 @@
       <c r="J256" s="11">
         <v>11255</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K256">
+        <f t="shared" si="3"/>
+        <v>148.41390000000001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A257" s="5" t="s">
         <v>10</v>
       </c>
@@ -8803,8 +9824,12 @@
       <c r="J257" s="11">
         <v>11256</v>
       </c>
-    </row>
-    <row r="258" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K257">
+        <f t="shared" si="3"/>
+        <v>148.41390000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A258" s="5" t="s">
         <v>10</v>
       </c>
@@ -8835,8 +9860,12 @@
       <c r="J258" s="11">
         <v>11257</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K258">
+        <f t="shared" si="3"/>
+        <v>143.38</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A259" s="5" t="s">
         <v>10</v>
       </c>
@@ -8867,8 +9896,12 @@
       <c r="J259" s="11">
         <v>11258</v>
       </c>
-    </row>
-    <row r="260" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K259">
+        <f t="shared" ref="K259:K322" si="4">I259*H259</f>
+        <v>161.80950000000001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A260" s="5" t="s">
         <v>10</v>
       </c>
@@ -8899,8 +9932,12 @@
       <c r="J260" s="11">
         <v>11259</v>
       </c>
-    </row>
-    <row r="261" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K260">
+        <f t="shared" si="4"/>
+        <v>168.0487</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A261" s="5" t="s">
         <v>10</v>
       </c>
@@ -8931,8 +9968,12 @@
       <c r="J261" s="11">
         <v>11260</v>
       </c>
-    </row>
-    <row r="262" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K261">
+        <f t="shared" si="4"/>
+        <v>168.0487</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A262" s="5" t="s">
         <v>10</v>
       </c>
@@ -8963,8 +10004,12 @@
       <c r="J262" s="11">
         <v>11261</v>
       </c>
-    </row>
-    <row r="263" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K262">
+        <f t="shared" si="4"/>
+        <v>168.0487</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A263" s="5" t="s">
         <v>10</v>
       </c>
@@ -8995,8 +10040,12 @@
       <c r="J263" s="11">
         <v>11262</v>
       </c>
-    </row>
-    <row r="264" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K263">
+        <f t="shared" si="4"/>
+        <v>168.0487</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A264" s="5" t="s">
         <v>10</v>
       </c>
@@ -9027,8 +10076,12 @@
       <c r="J264" s="11">
         <v>11263</v>
       </c>
-    </row>
-    <row r="265" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K264">
+        <f t="shared" si="4"/>
+        <v>168.0487</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A265" s="5" t="s">
         <v>10</v>
       </c>
@@ -9059,8 +10112,12 @@
       <c r="J265" s="11">
         <v>11264</v>
       </c>
-    </row>
-    <row r="266" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K265">
+        <f t="shared" si="4"/>
+        <v>167.60149999999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A266" s="5" t="s">
         <v>10</v>
       </c>
@@ -9091,8 +10148,12 @@
       <c r="J266" s="11">
         <v>11265</v>
       </c>
-    </row>
-    <row r="267" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K266">
+        <f t="shared" si="4"/>
+        <v>181.1514</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A267" s="5" t="s">
         <v>10</v>
       </c>
@@ -9123,8 +10184,12 @@
       <c r="J267" s="11">
         <v>11266</v>
       </c>
-    </row>
-    <row r="268" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K267">
+        <f t="shared" si="4"/>
+        <v>181.1514</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A268" s="5" t="s">
         <v>10</v>
       </c>
@@ -9155,8 +10220,12 @@
       <c r="J268" s="11">
         <v>11267</v>
       </c>
-    </row>
-    <row r="269" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K268">
+        <f t="shared" si="4"/>
+        <v>194.2739</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A269" s="5" t="s">
         <v>10</v>
       </c>
@@ -9187,8 +10256,12 @@
       <c r="J269" s="11">
         <v>11268</v>
       </c>
-    </row>
-    <row r="270" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K269">
+        <f t="shared" si="4"/>
+        <v>198.31819999999999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A270" s="5" t="s">
         <v>10</v>
       </c>
@@ -9219,8 +10292,12 @@
       <c r="J270" s="11">
         <v>11269</v>
       </c>
-    </row>
-    <row r="271" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K270">
+        <f t="shared" si="4"/>
+        <v>198.31819999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A271" s="5" t="s">
         <v>10</v>
       </c>
@@ -9251,8 +10328,12 @@
       <c r="J271" s="11">
         <v>11270</v>
       </c>
-    </row>
-    <row r="272" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K271">
+        <f t="shared" si="4"/>
+        <v>157.465</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A272" s="5" t="s">
         <v>10</v>
       </c>
@@ -9283,8 +10364,12 @@
       <c r="J272" s="11">
         <v>11271</v>
       </c>
-    </row>
-    <row r="273" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K272">
+        <f t="shared" si="4"/>
+        <v>216.1968</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A273" s="5" t="s">
         <v>10</v>
       </c>
@@ -9315,8 +10400,12 @@
       <c r="J273" s="11">
         <v>11272</v>
       </c>
-    </row>
-    <row r="274" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K273">
+        <f t="shared" si="4"/>
+        <v>217.411</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A274" s="5" t="s">
         <v>10</v>
       </c>
@@ -9347,8 +10436,12 @@
       <c r="J274" s="11">
         <v>11273</v>
       </c>
-    </row>
-    <row r="275" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K274">
+        <f t="shared" si="4"/>
+        <v>217.411</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A275" s="5" t="s">
         <v>10</v>
       </c>
@@ -9379,8 +10472,12 @@
       <c r="J275" s="11">
         <v>11274</v>
       </c>
-    </row>
-    <row r="276" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K275">
+        <f t="shared" si="4"/>
+        <v>217.411</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A276" s="5" t="s">
         <v>10</v>
       </c>
@@ -9411,8 +10508,12 @@
       <c r="J276" s="11">
         <v>11275</v>
       </c>
-    </row>
-    <row r="277" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K276">
+        <f t="shared" si="4"/>
+        <v>217.4049</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A277" s="5" t="s">
         <v>10</v>
       </c>
@@ -9443,8 +10544,12 @@
       <c r="J277" s="11">
         <v>11276</v>
       </c>
-    </row>
-    <row r="278" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K277">
+        <f t="shared" si="4"/>
+        <v>224.99799999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A278" s="5" t="s">
         <v>10</v>
       </c>
@@ -9475,8 +10580,12 @@
       <c r="J278" s="11">
         <v>11277</v>
       </c>
-    </row>
-    <row r="279" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K278">
+        <f t="shared" si="4"/>
+        <v>221.3528</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A279" s="5" t="s">
         <v>10</v>
       </c>
@@ -9507,8 +10616,12 @@
       <c r="J279" s="11">
         <v>11278</v>
       </c>
-    </row>
-    <row r="280" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K279">
+        <f t="shared" si="4"/>
+        <v>221.3528</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A280" s="5" t="s">
         <v>10</v>
       </c>
@@ -9539,8 +10652,12 @@
       <c r="J280" s="11">
         <v>11279</v>
       </c>
-    </row>
-    <row r="281" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K280">
+        <f t="shared" si="4"/>
+        <v>224.32159999999999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A281" s="5" t="s">
         <v>10</v>
       </c>
@@ -9571,8 +10688,12 @@
       <c r="J281" s="11">
         <v>11280</v>
       </c>
-    </row>
-    <row r="282" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K281">
+        <f t="shared" si="4"/>
+        <v>224.32159999999999</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A282" s="5" t="s">
         <v>10</v>
       </c>
@@ -9603,8 +10724,12 @@
       <c r="J282" s="11">
         <v>11281</v>
       </c>
-    </row>
-    <row r="283" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K282">
+        <f t="shared" si="4"/>
+        <v>224.32159999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A283" s="5" t="s">
         <v>10</v>
       </c>
@@ -9635,8 +10760,12 @@
       <c r="J283" s="11">
         <v>11282</v>
       </c>
-    </row>
-    <row r="284" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K283">
+        <f t="shared" si="4"/>
+        <v>232.52850000000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A284" s="5" t="s">
         <v>10</v>
       </c>
@@ -9667,8 +10796,12 @@
       <c r="J284" s="11">
         <v>11283</v>
       </c>
-    </row>
-    <row r="285" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K284">
+        <f t="shared" si="4"/>
+        <v>230.95490000000001</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A285" s="5" t="s">
         <v>10</v>
       </c>
@@ -9699,8 +10832,12 @@
       <c r="J285" s="11">
         <v>11284</v>
       </c>
-    </row>
-    <row r="286" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K285">
+        <f t="shared" si="4"/>
+        <v>229.66739999999999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A286" s="5" t="s">
         <v>10</v>
       </c>
@@ -9731,8 +10868,12 @@
       <c r="J286" s="11">
         <v>11285</v>
       </c>
-    </row>
-    <row r="287" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K286">
+        <f t="shared" si="4"/>
+        <v>229.66739999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A287" s="5" t="s">
         <v>10</v>
       </c>
@@ -9763,8 +10904,12 @@
       <c r="J287" s="11">
         <v>11286</v>
       </c>
-    </row>
-    <row r="288" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K287">
+        <f t="shared" si="4"/>
+        <v>229.66739999999999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A288" s="5" t="s">
         <v>10</v>
       </c>
@@ -9795,8 +10940,12 @@
       <c r="J288" s="11">
         <v>11287</v>
       </c>
-    </row>
-    <row r="289" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K288">
+        <f t="shared" si="4"/>
+        <v>229.66739999999999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A289" s="5" t="s">
         <v>10</v>
       </c>
@@ -9827,8 +10976,12 @@
       <c r="J289" s="11">
         <v>11288</v>
       </c>
-    </row>
-    <row r="290" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K289">
+        <f t="shared" si="4"/>
+        <v>229.66739999999999</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A290" s="5" t="s">
         <v>10</v>
       </c>
@@ -9859,8 +11012,12 @@
       <c r="J290" s="11">
         <v>11289</v>
       </c>
-    </row>
-    <row r="291" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K290">
+        <f t="shared" si="4"/>
+        <v>229.66739999999999</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A291" s="5" t="s">
         <v>10</v>
       </c>
@@ -9891,8 +11048,12 @@
       <c r="J291" s="11">
         <v>11290</v>
       </c>
-    </row>
-    <row r="292" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K291">
+        <f t="shared" si="4"/>
+        <v>229.66739999999999</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A292" s="5" t="s">
         <v>10</v>
       </c>
@@ -9923,8 +11084,12 @@
       <c r="J292" s="11">
         <v>11291</v>
       </c>
-    </row>
-    <row r="293" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K292">
+        <f t="shared" si="4"/>
+        <v>219.92410000000001</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A293" s="5" t="s">
         <v>10</v>
       </c>
@@ -9955,8 +11120,12 @@
       <c r="J293" s="11">
         <v>11292</v>
       </c>
-    </row>
-    <row r="294" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K293">
+        <f t="shared" si="4"/>
+        <v>219.92410000000001</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A294" s="5" t="s">
         <v>10</v>
       </c>
@@ -9987,8 +11156,12 @@
       <c r="J294" s="11">
         <v>11293</v>
       </c>
-    </row>
-    <row r="295" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K294">
+        <f t="shared" si="4"/>
+        <v>1759.3931</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A295" s="5" t="s">
         <v>10</v>
       </c>
@@ -10019,8 +11192,12 @@
       <c r="J295" s="11">
         <v>11294</v>
       </c>
-    </row>
-    <row r="296" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K295">
+        <f t="shared" si="4"/>
+        <v>219.92410000000001</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A296" s="5" t="s">
         <v>10</v>
       </c>
@@ -10051,8 +11228,12 @@
       <c r="J296" s="11">
         <v>11295</v>
       </c>
-    </row>
-    <row r="297" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K296">
+        <f t="shared" si="4"/>
+        <v>231.4683</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A297" s="5" t="s">
         <v>10</v>
       </c>
@@ -10083,8 +11264,12 @@
       <c r="J297" s="11">
         <v>11296</v>
       </c>
-    </row>
-    <row r="298" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K297">
+        <f t="shared" si="4"/>
+        <v>231.4683</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A298" s="5" t="s">
         <v>10</v>
       </c>
@@ -10115,8 +11300,12 @@
       <c r="J298" s="11">
         <v>11297</v>
       </c>
-    </row>
-    <row r="299" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K298">
+        <f t="shared" si="4"/>
+        <v>231.4683</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A299" s="5" t="s">
         <v>10</v>
       </c>
@@ -10147,8 +11336,12 @@
       <c r="J299" s="11">
         <v>11298</v>
       </c>
-    </row>
-    <row r="300" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K299">
+        <f t="shared" si="4"/>
+        <v>231.4683</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A300" s="5" t="s">
         <v>10</v>
       </c>
@@ -10179,8 +11372,12 @@
       <c r="J300" s="11">
         <v>11299</v>
       </c>
-    </row>
-    <row r="301" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K300">
+        <f t="shared" si="4"/>
+        <v>231.4683</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A301" s="5" t="s">
         <v>10</v>
       </c>
@@ -10211,8 +11408,12 @@
       <c r="J301" s="11">
         <v>11300</v>
       </c>
-    </row>
-    <row r="302" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K301">
+        <f t="shared" si="4"/>
+        <v>231.4683</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A302" s="5" t="s">
         <v>10</v>
       </c>
@@ -10243,8 +11444,12 @@
       <c r="J302" s="11">
         <v>11301</v>
       </c>
-    </row>
-    <row r="303" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K302">
+        <f t="shared" si="4"/>
+        <v>209.73949999999999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A303" s="5" t="s">
         <v>10</v>
       </c>
@@ -10275,8 +11480,12 @@
       <c r="J303" s="11">
         <v>11302</v>
       </c>
-    </row>
-    <row r="304" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K303">
+        <f t="shared" si="4"/>
+        <v>209.73949999999999</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A304" s="5" t="s">
         <v>10</v>
       </c>
@@ -10307,6 +11516,10 @@
       <c r="J304" s="11">
         <v>11303</v>
       </c>
+      <c r="K304">
+        <f t="shared" si="4"/>
+        <v>209.73949999999999</v>
+      </c>
     </row>
     <row r="305" spans="1:21" ht="20.399999999999999" thickBot="1">
       <c r="A305" s="5" t="s">
@@ -10339,6 +11552,10 @@
       <c r="J305" s="11">
         <v>11304</v>
       </c>
+      <c r="K305">
+        <f t="shared" si="4"/>
+        <v>212.00389999999999</v>
+      </c>
     </row>
     <row r="306" spans="1:21" ht="20.399999999999999" thickBot="1">
       <c r="A306" s="5" t="s">
@@ -10371,6 +11588,10 @@
       <c r="J306" s="11">
         <v>11305</v>
       </c>
+      <c r="K306">
+        <f t="shared" si="4"/>
+        <v>212.00389999999999</v>
+      </c>
     </row>
     <row r="307" spans="1:21" ht="20.399999999999999" thickBot="1">
       <c r="A307" s="5" t="s">
@@ -10403,6 +11624,10 @@
       <c r="J307" s="11">
         <v>11306</v>
       </c>
+      <c r="K307">
+        <f t="shared" si="4"/>
+        <v>209.73949999999999</v>
+      </c>
     </row>
     <row r="308" spans="1:21" ht="20.399999999999999" thickBot="1">
       <c r="A308" s="5" t="s">
@@ -10435,6 +11660,10 @@
       <c r="J308" s="11">
         <v>11307</v>
       </c>
+      <c r="K308">
+        <f t="shared" si="4"/>
+        <v>216.667</v>
+      </c>
     </row>
     <row r="309" spans="1:21" ht="20.399999999999999" thickBot="1">
       <c r="A309" s="5" t="s">
@@ -10467,6 +11696,10 @@
       <c r="J309" s="11">
         <v>11308</v>
       </c>
+      <c r="K309">
+        <f t="shared" si="4"/>
+        <v>216.667</v>
+      </c>
     </row>
     <row r="310" spans="1:21" ht="20.399999999999999" thickBot="1">
       <c r="A310" s="5" t="s">
@@ -10499,6 +11732,10 @@
       <c r="J310" s="11">
         <v>11309</v>
       </c>
+      <c r="K310">
+        <f t="shared" si="4"/>
+        <v>216.667</v>
+      </c>
     </row>
     <row r="311" spans="1:21" ht="20.399999999999999" thickBot="1">
       <c r="A311" s="5" t="s">
@@ -10531,6 +11768,10 @@
       <c r="J311" s="11">
         <v>11310</v>
       </c>
+      <c r="K311">
+        <f t="shared" si="4"/>
+        <v>204.005</v>
+      </c>
     </row>
     <row r="312" spans="1:21" ht="20.399999999999999" thickBot="1">
       <c r="A312" s="5" t="s">
@@ -10563,6 +11804,10 @@
       <c r="J312" s="11">
         <v>11311</v>
       </c>
+      <c r="K312">
+        <f t="shared" si="4"/>
+        <v>204.005</v>
+      </c>
     </row>
     <row r="313" spans="1:21" ht="20.399999999999999" thickBot="1">
       <c r="A313" s="5" t="s">
@@ -10595,6 +11840,10 @@
       <c r="J313" s="11">
         <v>11312</v>
       </c>
+      <c r="K313">
+        <f t="shared" si="4"/>
+        <v>204.3065</v>
+      </c>
     </row>
     <row r="314" spans="1:21" ht="20.399999999999999" thickBot="1">
       <c r="A314" s="5" t="s">
@@ -10627,6 +11876,10 @@
       <c r="J314" s="11">
         <v>11313</v>
       </c>
+      <c r="K314">
+        <f t="shared" si="4"/>
+        <v>208.88980000000001</v>
+      </c>
     </row>
     <row r="315" spans="1:21" ht="20.399999999999999" thickBot="1">
       <c r="A315" s="5" t="s">
@@ -10659,6 +11912,10 @@
       <c r="J315" s="11">
         <v>11314</v>
       </c>
+      <c r="K315">
+        <f t="shared" si="4"/>
+        <v>208.00710000000001</v>
+      </c>
       <c r="U315" s="12"/>
     </row>
     <row r="316" spans="1:21" ht="20.399999999999999" thickBot="1">
@@ -10692,6 +11949,10 @@
       <c r="J316" s="11">
         <v>11315</v>
       </c>
+      <c r="K316">
+        <f t="shared" si="4"/>
+        <v>208.6566</v>
+      </c>
     </row>
     <row r="317" spans="1:21" ht="20.399999999999999" thickBot="1">
       <c r="A317" s="5" t="s">
@@ -10724,6 +11985,10 @@
       <c r="J317" s="11">
         <v>11316</v>
       </c>
+      <c r="K317">
+        <f t="shared" si="4"/>
+        <v>208.6566</v>
+      </c>
     </row>
     <row r="318" spans="1:21" ht="20.399999999999999" thickBot="1">
       <c r="A318" s="5" t="s">
@@ -10756,6 +12021,10 @@
       <c r="J318" s="11">
         <v>11317</v>
       </c>
+      <c r="K318">
+        <f t="shared" si="4"/>
+        <v>208.71789999999999</v>
+      </c>
     </row>
     <row r="319" spans="1:21" ht="20.399999999999999" thickBot="1">
       <c r="A319" s="5" t="s">
@@ -10788,6 +12057,10 @@
       <c r="J319" s="11">
         <v>11318</v>
       </c>
+      <c r="K319">
+        <f t="shared" si="4"/>
+        <v>208.71789999999999</v>
+      </c>
     </row>
     <row r="320" spans="1:21" ht="20.399999999999999" thickBot="1">
       <c r="A320" s="5" t="s">
@@ -10820,8 +12093,12 @@
       <c r="J320" s="11">
         <v>11319</v>
       </c>
-    </row>
-    <row r="321" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K320">
+        <f t="shared" si="4"/>
+        <v>208.71789999999999</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A321" s="5" t="s">
         <v>10</v>
       </c>
@@ -10852,8 +12129,12 @@
       <c r="J321" s="11">
         <v>11320</v>
       </c>
-    </row>
-    <row r="322" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K321">
+        <f t="shared" si="4"/>
+        <v>208.71789999999999</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A322" s="5" t="s">
         <v>10</v>
       </c>
@@ -10884,8 +12165,12 @@
       <c r="J322" s="11">
         <v>11321</v>
       </c>
-    </row>
-    <row r="323" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K322">
+        <f t="shared" si="4"/>
+        <v>208.71789999999999</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A323" s="5" t="s">
         <v>10</v>
       </c>
@@ -10916,8 +12201,12 @@
       <c r="J323" s="11">
         <v>11322</v>
       </c>
-    </row>
-    <row r="324" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K323">
+        <f t="shared" ref="K323:K386" si="5">I323*H323</f>
+        <v>208.71789999999999</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A324" s="5" t="s">
         <v>10</v>
       </c>
@@ -10948,8 +12237,12 @@
       <c r="J324" s="11">
         <v>11323</v>
       </c>
-    </row>
-    <row r="325" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K324">
+        <f t="shared" si="5"/>
+        <v>208.71789999999999</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A325" s="5" t="s">
         <v>10</v>
       </c>
@@ -10980,8 +12273,12 @@
       <c r="J325" s="11">
         <v>11324</v>
       </c>
-    </row>
-    <row r="326" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K325">
+        <f t="shared" si="5"/>
+        <v>208.71789999999999</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A326" s="5" t="s">
         <v>10</v>
       </c>
@@ -11012,8 +12309,12 @@
       <c r="J326" s="11">
         <v>11325</v>
       </c>
-    </row>
-    <row r="327" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K326">
+        <f t="shared" si="5"/>
+        <v>208.71789999999999</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A327" s="5" t="s">
         <v>10</v>
       </c>
@@ -11044,8 +12345,12 @@
       <c r="J327" s="11">
         <v>11326</v>
       </c>
-    </row>
-    <row r="328" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K327">
+        <f t="shared" si="5"/>
+        <v>208.71789999999999</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A328" s="5" t="s">
         <v>10</v>
       </c>
@@ -11076,8 +12381,12 @@
       <c r="J328" s="11">
         <v>11327</v>
       </c>
-    </row>
-    <row r="329" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K328">
+        <f t="shared" si="5"/>
+        <v>208.71789999999999</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A329" s="5" t="s">
         <v>10</v>
       </c>
@@ -11108,8 +12417,12 @@
       <c r="J329" s="11">
         <v>11328</v>
       </c>
-    </row>
-    <row r="330" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K329">
+        <f t="shared" si="5"/>
+        <v>208.71789999999999</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A330" s="5" t="s">
         <v>10</v>
       </c>
@@ -11140,8 +12453,12 @@
       <c r="J330" s="11">
         <v>11329</v>
       </c>
-    </row>
-    <row r="331" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K330">
+        <f t="shared" si="5"/>
+        <v>208.71789999999999</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A331" s="5" t="s">
         <v>10</v>
       </c>
@@ -11172,8 +12489,12 @@
       <c r="J331" s="11">
         <v>11330</v>
       </c>
-    </row>
-    <row r="332" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K331">
+        <f t="shared" si="5"/>
+        <v>208.71789999999999</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A332" s="5" t="s">
         <v>10</v>
       </c>
@@ -11204,8 +12525,12 @@
       <c r="J332" s="11">
         <v>11331</v>
       </c>
-    </row>
-    <row r="333" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K332">
+        <f t="shared" si="5"/>
+        <v>208.71789999999999</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A333" s="5" t="s">
         <v>10</v>
       </c>
@@ -11236,8 +12561,12 @@
       <c r="J333" s="11">
         <v>11332</v>
       </c>
-    </row>
-    <row r="334" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K333">
+        <f t="shared" si="5"/>
+        <v>208.71789999999999</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A334" s="5" t="s">
         <v>10</v>
       </c>
@@ -11268,8 +12597,12 @@
       <c r="J334" s="11">
         <v>11333</v>
       </c>
-    </row>
-    <row r="335" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K334">
+        <f t="shared" si="5"/>
+        <v>208.71789999999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A335" s="5" t="s">
         <v>10</v>
       </c>
@@ -11300,8 +12633,12 @@
       <c r="J335" s="11">
         <v>11334</v>
       </c>
-    </row>
-    <row r="336" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K335">
+        <f t="shared" si="5"/>
+        <v>208.1962</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A336" s="5" t="s">
         <v>10</v>
       </c>
@@ -11332,8 +12669,12 @@
       <c r="J336" s="11">
         <v>11335</v>
       </c>
-    </row>
-    <row r="337" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K336">
+        <f t="shared" si="5"/>
+        <v>208.1962</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A337" s="5" t="s">
         <v>10</v>
       </c>
@@ -11364,8 +12705,12 @@
       <c r="J337" s="11">
         <v>11336</v>
       </c>
-    </row>
-    <row r="338" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K337">
+        <f t="shared" si="5"/>
+        <v>208.1962</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A338" s="5" t="s">
         <v>10</v>
       </c>
@@ -11396,8 +12741,12 @@
       <c r="J338" s="11">
         <v>11337</v>
       </c>
-    </row>
-    <row r="339" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K338">
+        <f t="shared" si="5"/>
+        <v>208.1962</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A339" s="5" t="s">
         <v>10</v>
       </c>
@@ -11428,8 +12777,12 @@
       <c r="J339" s="11">
         <v>11338</v>
       </c>
-    </row>
-    <row r="340" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K339">
+        <f t="shared" si="5"/>
+        <v>208.1962</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A340" s="5" t="s">
         <v>10</v>
       </c>
@@ -11460,8 +12813,12 @@
       <c r="J340" s="11">
         <v>11339</v>
       </c>
-    </row>
-    <row r="341" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K340">
+        <f t="shared" si="5"/>
+        <v>208.26750000000001</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A341" s="5" t="s">
         <v>10</v>
       </c>
@@ -11492,8 +12849,12 @@
       <c r="J341" s="11">
         <v>11340</v>
       </c>
-    </row>
-    <row r="342" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K341">
+        <f t="shared" si="5"/>
+        <v>259.4597</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A342" s="5" t="s">
         <v>10</v>
       </c>
@@ -11524,8 +12885,12 @@
       <c r="J342" s="11">
         <v>11341</v>
       </c>
-    </row>
-    <row r="343" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K342">
+        <f t="shared" si="5"/>
+        <v>259.4597</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A343" s="5" t="s">
         <v>10</v>
       </c>
@@ -11556,8 +12921,12 @@
       <c r="J343" s="11">
         <v>11342</v>
       </c>
-    </row>
-    <row r="344" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K343">
+        <f t="shared" si="5"/>
+        <v>257.93299999999999</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A344" s="5" t="s">
         <v>10</v>
       </c>
@@ -11588,8 +12957,12 @@
       <c r="J344" s="11">
         <v>11343</v>
       </c>
-    </row>
-    <row r="345" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K344">
+        <f t="shared" si="5"/>
+        <v>253.54320000000001</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A345" s="5" t="s">
         <v>10</v>
       </c>
@@ -11620,8 +12993,12 @@
       <c r="J345" s="11">
         <v>11344</v>
       </c>
-    </row>
-    <row r="346" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K345">
+        <f t="shared" si="5"/>
+        <v>240.8066</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A346" s="5" t="s">
         <v>10</v>
       </c>
@@ -11652,8 +13029,12 @@
       <c r="J346" s="11">
         <v>11345</v>
       </c>
-    </row>
-    <row r="347" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K346">
+        <f t="shared" si="5"/>
+        <v>240.8066</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A347" s="5" t="s">
         <v>10</v>
       </c>
@@ -11684,8 +13065,12 @@
       <c r="J347" s="11">
         <v>11346</v>
       </c>
-    </row>
-    <row r="348" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K347">
+        <f t="shared" si="5"/>
+        <v>240.8066</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A348" s="5" t="s">
         <v>10</v>
       </c>
@@ -11716,8 +13101,12 @@
       <c r="J348" s="11">
         <v>11347</v>
       </c>
-    </row>
-    <row r="349" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K348">
+        <f t="shared" si="5"/>
+        <v>238.1251</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A349" s="5" t="s">
         <v>10</v>
       </c>
@@ -11748,8 +13137,12 @@
       <c r="J349" s="11">
         <v>11348</v>
       </c>
-    </row>
-    <row r="350" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K349">
+        <f t="shared" si="5"/>
+        <v>234.90209999999999</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A350" s="5" t="s">
         <v>10</v>
       </c>
@@ -11780,8 +13173,12 @@
       <c r="J350" s="11">
         <v>11349</v>
       </c>
-    </row>
-    <row r="351" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K350">
+        <f t="shared" si="5"/>
+        <v>234.90209999999999</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A351" s="5" t="s">
         <v>10</v>
       </c>
@@ -11812,8 +13209,12 @@
       <c r="J351" s="11">
         <v>11350</v>
       </c>
-    </row>
-    <row r="352" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K351">
+        <f t="shared" si="5"/>
+        <v>240.8888</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A352" s="5" t="s">
         <v>10</v>
       </c>
@@ -11844,8 +13245,12 @@
       <c r="J352" s="11">
         <v>11351</v>
       </c>
-    </row>
-    <row r="353" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K352">
+        <f t="shared" si="5"/>
+        <v>247.9992</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A353" s="5" t="s">
         <v>10</v>
       </c>
@@ -11876,8 +13281,12 @@
       <c r="J353" s="11">
         <v>11352</v>
       </c>
-    </row>
-    <row r="354" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K353">
+        <f t="shared" si="5"/>
+        <v>241.67240000000001</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A354" s="5" t="s">
         <v>10</v>
       </c>
@@ -11908,8 +13317,12 @@
       <c r="J354" s="11">
         <v>11353</v>
       </c>
-    </row>
-    <row r="355" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K354">
+        <f t="shared" si="5"/>
+        <v>241.67240000000001</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A355" s="5" t="s">
         <v>10</v>
       </c>
@@ -11940,8 +13353,12 @@
       <c r="J355" s="11">
         <v>11354</v>
       </c>
-    </row>
-    <row r="356" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K355">
+        <f t="shared" si="5"/>
+        <v>241.67230000000001</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A356" s="5" t="s">
         <v>10</v>
       </c>
@@ -11972,8 +13389,12 @@
       <c r="J356" s="11">
         <v>11355</v>
       </c>
-    </row>
-    <row r="357" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K356">
+        <f t="shared" si="5"/>
+        <v>238.55500000000001</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A357" s="5" t="s">
         <v>10</v>
       </c>
@@ -12004,8 +13425,12 @@
       <c r="J357" s="11">
         <v>11356</v>
       </c>
-    </row>
-    <row r="358" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K357">
+        <f t="shared" si="5"/>
+        <v>244.46940000000001</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A358" s="5" t="s">
         <v>10</v>
       </c>
@@ -12036,8 +13461,12 @@
       <c r="J358" s="11">
         <v>11357</v>
       </c>
-    </row>
-    <row r="359" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K358">
+        <f t="shared" si="5"/>
+        <v>242.1592</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A359" s="5" t="s">
         <v>10</v>
       </c>
@@ -12068,8 +13497,12 @@
       <c r="J359" s="11">
         <v>11358</v>
       </c>
-    </row>
-    <row r="360" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K359">
+        <f t="shared" si="5"/>
+        <v>239.3107</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A360" s="5" t="s">
         <v>10</v>
       </c>
@@ -12100,8 +13533,12 @@
       <c r="J360" s="11">
         <v>11359</v>
       </c>
-    </row>
-    <row r="361" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K360">
+        <f t="shared" si="5"/>
+        <v>239.3107</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A361" s="5" t="s">
         <v>10</v>
       </c>
@@ -12132,8 +13569,12 @@
       <c r="J361" s="11">
         <v>11360</v>
       </c>
-    </row>
-    <row r="362" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K361">
+        <f t="shared" si="5"/>
+        <v>297.07600000000002</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A362" s="5" t="s">
         <v>10</v>
       </c>
@@ -12164,8 +13605,12 @@
       <c r="J362" s="11">
         <v>11361</v>
       </c>
-    </row>
-    <row r="363" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K362">
+        <f t="shared" si="5"/>
+        <v>381.79219999999998</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A363" s="5" t="s">
         <v>10</v>
       </c>
@@ -12196,8 +13641,12 @@
       <c r="J363" s="11">
         <v>11362</v>
       </c>
-    </row>
-    <row r="364" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K363">
+        <f t="shared" si="5"/>
+        <v>381.7921</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A364" s="5" t="s">
         <v>10</v>
       </c>
@@ -12228,8 +13677,12 @@
       <c r="J364" s="11">
         <v>11363</v>
       </c>
-    </row>
-    <row r="365" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K364">
+        <f t="shared" si="5"/>
+        <v>381.79219999999998</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A365" s="5" t="s">
         <v>10</v>
       </c>
@@ -12260,8 +13713,12 @@
       <c r="J365" s="11">
         <v>11364</v>
       </c>
-    </row>
-    <row r="366" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K365">
+        <f t="shared" si="5"/>
+        <v>765.21360000000004</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A366" s="5" t="s">
         <v>10</v>
       </c>
@@ -12292,8 +13749,12 @@
       <c r="J366" s="11">
         <v>11365</v>
       </c>
-    </row>
-    <row r="367" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K366">
+        <f t="shared" si="5"/>
+        <v>447.82659999999998</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A367" s="5" t="s">
         <v>10</v>
       </c>
@@ -12324,8 +13785,12 @@
       <c r="J367" s="11">
         <v>11366</v>
       </c>
-    </row>
-    <row r="368" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K367">
+        <f t="shared" si="5"/>
+        <v>156.37710000000001</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A368" s="5" t="s">
         <v>10</v>
       </c>
@@ -12356,8 +13821,12 @@
       <c r="J368" s="11">
         <v>11367</v>
       </c>
-    </row>
-    <row r="369" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K368">
+        <f t="shared" si="5"/>
+        <v>156.37710000000001</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A369" s="5" t="s">
         <v>10</v>
       </c>
@@ -12388,8 +13857,12 @@
       <c r="J369" s="11">
         <v>11368</v>
       </c>
-    </row>
-    <row r="370" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K369">
+        <f t="shared" si="5"/>
+        <v>156.37710000000001</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A370" s="5" t="s">
         <v>10</v>
       </c>
@@ -12420,8 +13893,12 @@
       <c r="J370" s="11">
         <v>11369</v>
       </c>
-    </row>
-    <row r="371" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K370">
+        <f t="shared" si="5"/>
+        <v>156.37710000000001</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A371" s="5" t="s">
         <v>10</v>
       </c>
@@ -12452,8 +13929,12 @@
       <c r="J371" s="11">
         <v>11370</v>
       </c>
-    </row>
-    <row r="372" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K371">
+        <f t="shared" si="5"/>
+        <v>156.37710000000001</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A372" s="5" t="s">
         <v>10</v>
       </c>
@@ -12484,8 +13965,12 @@
       <c r="J372" s="11">
         <v>11371</v>
       </c>
-    </row>
-    <row r="373" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K372">
+        <f t="shared" si="5"/>
+        <v>156.37710000000001</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A373" s="5" t="s">
         <v>10</v>
       </c>
@@ -12516,8 +14001,12 @@
       <c r="J373" s="11">
         <v>11372</v>
       </c>
-    </row>
-    <row r="374" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K373">
+        <f t="shared" si="5"/>
+        <v>156.37710000000001</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A374" s="5" t="s">
         <v>10</v>
       </c>
@@ -12548,8 +14037,12 @@
       <c r="J374" s="11">
         <v>11373</v>
       </c>
-    </row>
-    <row r="375" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K374">
+        <f t="shared" si="5"/>
+        <v>156.37719999999999</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A375" s="5" t="s">
         <v>10</v>
       </c>
@@ -12580,8 +14073,12 @@
       <c r="J375" s="11">
         <v>11374</v>
       </c>
-    </row>
-    <row r="376" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K375">
+        <f t="shared" si="5"/>
+        <v>156.37710000000001</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A376" s="5" t="s">
         <v>10</v>
       </c>
@@ -12612,8 +14109,12 @@
       <c r="J376" s="11">
         <v>11375</v>
       </c>
-    </row>
-    <row r="377" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K376">
+        <f t="shared" si="5"/>
+        <v>156.37710000000001</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A377" s="5" t="s">
         <v>10</v>
       </c>
@@ -12644,8 +14145,12 @@
       <c r="J377" s="11">
         <v>11376</v>
       </c>
-    </row>
-    <row r="378" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K377">
+        <f t="shared" si="5"/>
+        <v>329.18740000000003</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A378" s="5" t="s">
         <v>10</v>
       </c>
@@ -12676,8 +14181,12 @@
       <c r="J378" s="11">
         <v>11377</v>
       </c>
-    </row>
-    <row r="379" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K378">
+        <f t="shared" si="5"/>
+        <v>329.18740000000003</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A379" s="5" t="s">
         <v>10</v>
       </c>
@@ -12708,8 +14217,12 @@
       <c r="J379" s="11">
         <v>11378</v>
       </c>
-    </row>
-    <row r="380" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K379">
+        <f t="shared" si="5"/>
+        <v>329.18740000000003</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A380" s="5" t="s">
         <v>10</v>
       </c>
@@ -12740,8 +14253,12 @@
       <c r="J380" s="11">
         <v>11379</v>
       </c>
-    </row>
-    <row r="381" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K380">
+        <f t="shared" si="5"/>
+        <v>329.1875</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A381" s="5" t="s">
         <v>10</v>
       </c>
@@ -12772,8 +14289,12 @@
       <c r="J381" s="11">
         <v>11380</v>
       </c>
-    </row>
-    <row r="382" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K381">
+        <f t="shared" si="5"/>
+        <v>329.1875</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A382" s="5" t="s">
         <v>10</v>
       </c>
@@ -12804,8 +14325,12 @@
       <c r="J382" s="11">
         <v>11381</v>
       </c>
-    </row>
-    <row r="383" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K382">
+        <f t="shared" si="5"/>
+        <v>329.1875</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A383" s="5" t="s">
         <v>10</v>
       </c>
@@ -12836,8 +14361,12 @@
       <c r="J383" s="11">
         <v>11382</v>
       </c>
-    </row>
-    <row r="384" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K383">
+        <f t="shared" si="5"/>
+        <v>329.1875</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A384" s="5" t="s">
         <v>10</v>
       </c>
@@ -12868,8 +14397,12 @@
       <c r="J384" s="11">
         <v>11383</v>
       </c>
-    </row>
-    <row r="385" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K384">
+        <f t="shared" si="5"/>
+        <v>329.1875</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A385" s="5" t="s">
         <v>10</v>
       </c>
@@ -12900,8 +14433,12 @@
       <c r="J385" s="11">
         <v>11384</v>
       </c>
-    </row>
-    <row r="386" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K385">
+        <f t="shared" si="5"/>
+        <v>329.1875</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A386" s="5" t="s">
         <v>10</v>
       </c>
@@ -12932,8 +14469,12 @@
       <c r="J386" s="11">
         <v>11385</v>
       </c>
-    </row>
-    <row r="387" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K386">
+        <f t="shared" si="5"/>
+        <v>329.18740000000003</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A387" s="5" t="s">
         <v>10</v>
       </c>
@@ -12964,8 +14505,12 @@
       <c r="J387" s="11">
         <v>11386</v>
       </c>
-    </row>
-    <row r="388" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K387">
+        <f t="shared" ref="K387:K396" si="6">I387*H387</f>
+        <v>329.1875</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A388" s="5" t="s">
         <v>10</v>
       </c>
@@ -12996,8 +14541,12 @@
       <c r="J388" s="11">
         <v>11387</v>
       </c>
-    </row>
-    <row r="389" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K388">
+        <f t="shared" si="6"/>
+        <v>329.18740000000003</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A389" s="5" t="s">
         <v>10</v>
       </c>
@@ -13028,8 +14577,12 @@
       <c r="J389" s="11">
         <v>11388</v>
       </c>
-    </row>
-    <row r="390" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K389">
+        <f t="shared" si="6"/>
+        <v>1071.3613</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A390" s="5" t="s">
         <v>10</v>
       </c>
@@ -13060,8 +14613,12 @@
       <c r="J390" s="11">
         <v>11389</v>
       </c>
-    </row>
-    <row r="391" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K390">
+        <f t="shared" si="6"/>
+        <v>554.15239999999994</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A391" s="5" t="s">
         <v>10</v>
       </c>
@@ -13092,8 +14649,12 @@
       <c r="J391" s="11">
         <v>11390</v>
       </c>
-    </row>
-    <row r="392" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K391">
+        <f t="shared" si="6"/>
+        <v>498.62090000000001</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A392" s="5" t="s">
         <v>10</v>
       </c>
@@ -13124,8 +14685,12 @@
       <c r="J392" s="11">
         <v>11391</v>
       </c>
-    </row>
-    <row r="393" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K392">
+        <f t="shared" si="6"/>
+        <v>498.62090000000001</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A393" s="5" t="s">
         <v>10</v>
       </c>
@@ -13156,8 +14721,12 @@
       <c r="J393" s="11">
         <v>11392</v>
       </c>
-    </row>
-    <row r="394" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K393">
+        <f t="shared" si="6"/>
+        <v>498.62090000000001</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A394" s="5" t="s">
         <v>10</v>
       </c>
@@ -13188,8 +14757,12 @@
       <c r="J394" s="11">
         <v>11393</v>
       </c>
-    </row>
-    <row r="395" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K394">
+        <f t="shared" si="6"/>
+        <v>498.62090000000001</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A395" s="5" t="s">
         <v>10</v>
       </c>
@@ -13220,8 +14793,12 @@
       <c r="J395" s="11">
         <v>11394</v>
       </c>
-    </row>
-    <row r="396" spans="1:10" ht="20.399999999999999" thickBot="1">
+      <c r="K395">
+        <f t="shared" si="6"/>
+        <v>3652.0313999999998</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" ht="20.399999999999999" thickBot="1">
       <c r="A396" s="5" t="s">
         <v>10</v>
       </c>
@@ -13251,6 +14828,20 @@
       </c>
       <c r="J396" s="11">
         <v>11395</v>
+      </c>
+      <c r="K396">
+        <f t="shared" si="6"/>
+        <v>3107.4380000000001</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11">
+      <c r="H397" s="14">
+        <f>SUM(H2:H396)</f>
+        <v>586</v>
+      </c>
+      <c r="K397">
+        <f>SUM(K2:K396)</f>
+        <v>109295.51510000011</v>
       </c>
     </row>
   </sheetData>
